--- a/xlsx/凌志ES_intext.xlsx
+++ b/xlsx/凌志ES_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>豐田汽車公司</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_凌志ES</t>
+    <t>丰田汽车公司</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_凌志ES</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%9F%A5%E7%B8%A3</t>
   </si>
   <si>
-    <t>愛知縣</t>
+    <t>爱知县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E8%BD%AE%E9%A9%B1%E5%8A%A8</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E5%87%B1%E7%BE%8E%E7%91%9E</t>
   </si>
   <si>
-    <t>豐田凱美瑞</t>
+    <t>丰田凯美瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/V6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>自動變速器</t>
+    <t>自动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97IS</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%8B%92%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>先鋒公司</t>
+    <t>先锋公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E8%AD%B0%E5%94%AE%E5%83%B9</t>
   </si>
   <si>
-    <t>建議售價</t>
+    <t>建议售价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%BC%97%E9%81%9C%E6%87%B8%E5%90%8A</t>
   </si>
   <si>
-    <t>麥弗遜懸吊</t>
+    <t>麦弗逊悬吊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%A1%83</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Highlander</t>
   </si>
   <si>
-    <t>豐田Highlander</t>
+    <t>丰田Highlander</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BD%9B%E5%88%A9%E5%B1%B1</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%BF%AA%E6%AD%90%E5%A4%A7%E9%81%93</t>
   </si>
   <si>
-    <t>羅迪歐大道</t>
+    <t>罗迪欧大道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E6%9C%97%C2%B7%E5%8F%B2%E6%9D%B1</t>
   </si>
   <si>
-    <t>莎朗·史東</t>
+    <t>莎朗·史东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%87%B4%E7%99%BC%E5%85%89</t>
   </si>
   <si>
-    <t>電致發光</t>
+    <t>电致发光</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%81%93</t>
@@ -215,25 +215,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%BC%B7%E5%BA%A6%E6%B0%A3%E9%AB%94%E6%94%BE%E9%9B%BB%E7%87%88</t>
   </si>
   <si>
-    <t>高強度氣體放電燈</t>
+    <t>高强度气体放电灯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%B3%E6%AD%8C</t>
   </si>
   <si>
-    <t>謳歌</t>
+    <t>讴歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%BF%AA</t>
   </si>
   <si>
-    <t>奧迪</t>
+    <t>奥迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%BF%AAA4</t>
   </si>
   <si>
-    <t>奧迪A4</t>
+    <t>奥迪A4</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E8%BF%AA%E6%8B%89%E5%85%8B</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E6%B5%81%E9%96%A5</t>
   </si>
   <si>
-    <t>節流閥</t>
+    <t>节流阀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%8A%B1%E6%AD%BB%E5%88%B6%E5%8A%A8%E7%B3%BB%E7%BB%9F</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E7%A9%A9%E5%AE%9A%E6%8E%A7%E5%88%B6%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>電子穩定控制系統</t>
+    <t>电子稳定控制系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tumi_(business)</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B2%A1%E7%B8%A3</t>
   </si>
   <si>
-    <t>福岡縣</t>
+    <t>福冈县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MP3%E6%92%AD%E6%94%BE%E5%99%A8</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%96%A9%E6%96%AFHS</t>
   </si>
   <si>
-    <t>雷克薩斯HS</t>
+    <t>雷克萨斯HS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%90%A8%E6%96%AFES</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%95%8C%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>跨界休旅車</t>
+    <t>跨界休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>休旅車</t>
+    <t>休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%9E%E7%AF%B7%E8%BD%A6</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E8%90%A8%E6%96%AFIS_F</t>
